--- a/Data/expdata.xlsx
+++ b/Data/expdata.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +439,294 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0.062</v>
+      </c>
+      <c r="B2">
+        <v>0.4130137</v>
+      </c>
+      <c r="C2">
+        <v>0.05592955</v>
+      </c>
+      <c r="D2">
+        <v>0.026</v>
+      </c>
+      <c r="E2">
+        <v>0.3128358</v>
+      </c>
+      <c r="F2">
+        <v>0.08578109</v>
+      </c>
+      <c r="G2">
+        <v>0.026</v>
+      </c>
+      <c r="H2">
+        <v>0.2676847</v>
+      </c>
+      <c r="I2">
+        <v>0.1007882</v>
+      </c>
+      <c r="J2">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>0.188</v>
+      </c>
+      <c r="B3">
+        <v>0.3440239</v>
+      </c>
+      <c r="C3">
+        <v>0.03039841</v>
+      </c>
+      <c r="D3">
+        <v>0.02</v>
+      </c>
+      <c r="E3">
+        <v>0.1802249</v>
+      </c>
+      <c r="F3">
+        <v>0.04669233</v>
+      </c>
+      <c r="G3">
+        <v>0.02</v>
+      </c>
+      <c r="H3">
+        <v>0.3044732</v>
+      </c>
+      <c r="I3">
+        <v>0.05587475</v>
+      </c>
+      <c r="J3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>0.312</v>
+      </c>
+      <c r="B4">
+        <v>0.3400697</v>
+      </c>
+      <c r="C4">
+        <v>0.02308166</v>
+      </c>
+      <c r="D4">
+        <v>0.02</v>
+      </c>
+      <c r="E4">
+        <v>0.2038352</v>
+      </c>
+      <c r="F4">
+        <v>0.04085836</v>
+      </c>
+      <c r="G4">
+        <v>0.02</v>
+      </c>
+      <c r="H4">
+        <v>0.2668712</v>
+      </c>
+      <c r="I4">
+        <v>0.04301636</v>
+      </c>
+      <c r="J4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>0.438</v>
+      </c>
+      <c r="B5">
+        <v>0.3281929</v>
+      </c>
+      <c r="C5">
+        <v>0.02264336</v>
+      </c>
+      <c r="D5">
+        <v>0.02</v>
+      </c>
+      <c r="E5">
+        <v>0.240405</v>
+      </c>
+      <c r="F5">
+        <v>0.03619094</v>
+      </c>
+      <c r="G5">
+        <v>0.02</v>
+      </c>
+      <c r="H5">
+        <v>0.3181575</v>
+      </c>
+      <c r="I5">
+        <v>0.04229988</v>
+      </c>
+      <c r="J5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="B6">
+        <v>0.3491165</v>
+      </c>
+      <c r="C6">
+        <v>0.02645802</v>
+      </c>
+      <c r="D6">
+        <v>0.022</v>
+      </c>
+      <c r="E6">
+        <v>0.2584593</v>
+      </c>
+      <c r="F6">
+        <v>0.03745757</v>
+      </c>
+      <c r="G6">
+        <v>0.022</v>
+      </c>
+      <c r="H6">
+        <v>0.2676315</v>
+      </c>
+      <c r="I6">
+        <v>0.05099931</v>
+      </c>
+      <c r="J6">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="B7">
+        <v>0.3040485</v>
+      </c>
+      <c r="C7">
+        <v>0.04033324</v>
+      </c>
+      <c r="D7">
+        <v>0.025</v>
+      </c>
+      <c r="E7">
+        <v>0.2382493</v>
+      </c>
+      <c r="F7">
+        <v>0.04933397</v>
+      </c>
+      <c r="G7">
+        <v>0.025</v>
+      </c>
+      <c r="H7">
+        <v>0.3037565</v>
+      </c>
+      <c r="I7">
+        <v>0.07128238000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="B8">
+        <v>0.283141</v>
+      </c>
+      <c r="C8">
+        <v>0.06283423</v>
+      </c>
+      <c r="D8">
+        <v>0.033</v>
+      </c>
+      <c r="E8">
+        <v>0.05281279</v>
+      </c>
+      <c r="F8">
+        <v>0.07150518</v>
+      </c>
+      <c r="G8">
+        <v>0.033</v>
+      </c>
+      <c r="H8">
+        <v>0.3247496</v>
+      </c>
+      <c r="I8">
+        <v>0.1505325</v>
+      </c>
+      <c r="J8">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="B9">
+        <v>-0.01792466</v>
+      </c>
+      <c r="C9">
+        <v>0.1157997</v>
+      </c>
+      <c r="D9">
+        <v>0.035</v>
+      </c>
+      <c r="E9">
+        <v>-0.002014692</v>
+      </c>
+      <c r="F9">
+        <v>0.1242424</v>
+      </c>
+      <c r="G9">
+        <v>0.035</v>
+      </c>
+      <c r="H9">
+        <v>0.1587752</v>
+      </c>
+      <c r="I9">
+        <v>0.167281</v>
+      </c>
+      <c r="J9">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>1.062</v>
+      </c>
+      <c r="B10">
+        <v>-0.7459926</v>
+      </c>
+      <c r="C10">
+        <v>0.6547472</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-0.1430459</v>
+      </c>
+      <c r="F10">
+        <v>0.2765346</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.459788</v>
+      </c>
+      <c r="I10">
+        <v>3.822458</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
